--- a/flows/BAR_fund_flow_data.xlsx
+++ b/flows/BAR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1842"/>
+  <dimension ref="A1:B1860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18855,6 +18855,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>-5.029</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
